--- a/data/fitness_development/MFE_flies.xlsx
+++ b/data/fitness_development/MFE_flies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_18/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7863335A-6F43-AB4B-BAB4-95E22CB8348C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7833B277-7CE6-B34B-B22A-134300AB292A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F87DAE63-E76D-134A-8567-557F4C2DF883}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="7">
   <si>
     <t>vial</t>
   </si>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E795774-325B-7540-93CB-61EC9638DF3F}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="82" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2428,6 +2428,493 @@
         <v>0</v>
       </c>
     </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>332</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119">
+        <v>332</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>332</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+      <c r="E120">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>332</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>3</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>332</v>
+      </c>
+      <c r="D122">
+        <v>5</v>
+      </c>
+      <c r="E122">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>3</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123">
+        <v>332</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124">
+        <v>332</v>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125">
+        <v>332</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126">
+        <v>332</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127">
+        <v>332</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128">
+        <v>332</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>6</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129">
+        <v>332</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>7</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>332</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <v>332</v>
+      </c>
+      <c r="D131">
+        <v>4</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132">
+        <v>332</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+      <c r="E132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133">
+        <v>332</v>
+      </c>
+      <c r="D133">
+        <v>3</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>9</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>332</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>9</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135">
+        <v>332</v>
+      </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
+      <c r="E135">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>10</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>332</v>
+      </c>
+      <c r="D136">
+        <v>4</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>10</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137">
+        <v>332</v>
+      </c>
+      <c r="D137">
+        <v>8</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>332</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>11</v>
+      </c>
+      <c r="B139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139">
+        <v>332</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>12</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <v>332</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>12</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141">
+        <v>332</v>
+      </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
+      <c r="E141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>13</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142">
+        <v>332</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>13</v>
+      </c>
+      <c r="B143" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143">
+        <v>332</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>14</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144">
+        <v>332</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>14</v>
+      </c>
+      <c r="B145" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145">
+        <v>332</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>15</v>
+      </c>
+      <c r="B146" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146">
+        <v>332</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fitness_development/MFE_flies.xlsx
+++ b/data/fitness_development/MFE_flies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_18/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7833B277-7CE6-B34B-B22A-134300AB292A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84FEE38E-FE6E-2445-971C-1456B84EA9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F87DAE63-E76D-134A-8567-557F4C2DF883}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F87DAE63-E76D-134A-8567-557F4C2DF883}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="7">
   <si>
     <t>vial</t>
   </si>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E795774-325B-7540-93CB-61EC9638DF3F}">
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="82" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="82" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="F204" sqref="F204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2914,6 +2914,998 @@
       <c r="C146">
         <v>332</v>
       </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>341</v>
+      </c>
+      <c r="D147">
+        <v>6</v>
+      </c>
+      <c r="E147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148">
+        <v>341</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>2</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>341</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150">
+        <v>341</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>3</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151">
+        <v>341</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+      <c r="E151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>3</v>
+      </c>
+      <c r="B152" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152">
+        <v>341</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>4</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153">
+        <v>341</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154">
+        <v>341</v>
+      </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
+      <c r="E154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>341</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156">
+        <v>341</v>
+      </c>
+      <c r="D156">
+        <v>5</v>
+      </c>
+      <c r="E156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>6</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157">
+        <v>341</v>
+      </c>
+      <c r="D157">
+        <v>5</v>
+      </c>
+      <c r="E157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>6</v>
+      </c>
+      <c r="B158" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158">
+        <v>341</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159">
+        <v>341</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160">
+        <v>341</v>
+      </c>
+      <c r="D160">
+        <v>7</v>
+      </c>
+      <c r="E160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>8</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161">
+        <v>341</v>
+      </c>
+      <c r="D161">
+        <v>4</v>
+      </c>
+      <c r="E161">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>8</v>
+      </c>
+      <c r="B162" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162">
+        <v>341</v>
+      </c>
+      <c r="D162">
+        <v>6</v>
+      </c>
+      <c r="E162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>9</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163">
+        <v>341</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>9</v>
+      </c>
+      <c r="B164" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164">
+        <v>341</v>
+      </c>
+      <c r="D164">
+        <v>5</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>10</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>341</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>10</v>
+      </c>
+      <c r="B166" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166">
+        <v>341</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+      <c r="E166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>11</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167">
+        <v>341</v>
+      </c>
+      <c r="D167">
+        <v>3</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>11</v>
+      </c>
+      <c r="B168" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168">
+        <v>341</v>
+      </c>
+      <c r="D168">
+        <v>4</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>12</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169">
+        <v>341</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>12</v>
+      </c>
+      <c r="B170" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170">
+        <v>341</v>
+      </c>
+      <c r="D170">
+        <v>6</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>13</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <v>341</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>13</v>
+      </c>
+      <c r="B172" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172">
+        <v>341</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>14</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173">
+        <v>341</v>
+      </c>
+      <c r="D173">
+        <v>4</v>
+      </c>
+      <c r="E173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>14</v>
+      </c>
+      <c r="B174" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174">
+        <v>341</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>15</v>
+      </c>
+      <c r="B175" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175">
+        <v>341</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176">
+        <v>356</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177">
+        <v>356</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>2</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178">
+        <v>356</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>2</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179">
+        <v>356</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>3</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180">
+        <v>356</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>3</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181">
+        <v>356</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>4</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182">
+        <v>356</v>
+      </c>
+      <c r="D182">
+        <v>4</v>
+      </c>
+      <c r="E182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>4</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183">
+        <v>356</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+      <c r="E183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>5</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>356</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>5</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185">
+        <v>356</v>
+      </c>
+      <c r="D185">
+        <v>3</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>6</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186">
+        <v>356</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>6</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187">
+        <v>356</v>
+      </c>
+      <c r="D187">
+        <v>4</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>7</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188">
+        <v>356</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>7</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189">
+        <v>356</v>
+      </c>
+      <c r="D189">
+        <v>4</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>8</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190">
+        <v>356</v>
+      </c>
+      <c r="D190">
+        <v>3</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>8</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191">
+        <v>356</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>9</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192">
+        <v>356</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>9</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193">
+        <v>356</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>10</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194">
+        <v>356</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>10</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195">
+        <v>356</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>11</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196">
+        <v>356</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>11</v>
+      </c>
+      <c r="B197" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197">
+        <v>356</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>12</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198">
+        <v>356</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>12</v>
+      </c>
+      <c r="B199" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199">
+        <v>356</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>13</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200">
+        <v>356</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>13</v>
+      </c>
+      <c r="B201" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201">
+        <v>356</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>14</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202">
+        <v>356</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>14</v>
+      </c>
+      <c r="B203" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203">
+        <v>356</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>15</v>
+      </c>
+      <c r="B204" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204">
+        <v>356</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/fitness_development/MFE_flies.xlsx
+++ b/data/fitness_development/MFE_flies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_18/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84FEE38E-FE6E-2445-971C-1456B84EA9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69C76F9D-6EF2-1842-93FD-AD27AAEF107D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F87DAE63-E76D-134A-8567-557F4C2DF883}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F87DAE63-E76D-134A-8567-557F4C2DF883}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="7">
   <si>
     <t>vial</t>
   </si>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E795774-325B-7540-93CB-61EC9638DF3F}">
-  <dimension ref="A1:E204"/>
+  <dimension ref="A1:E233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="82" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F204" sqref="F204"/>
+    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="161" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E233" sqref="E233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2966,10 +2966,10 @@
         <v>341</v>
       </c>
       <c r="D149">
+        <v>8</v>
+      </c>
+      <c r="E149">
         <v>3</v>
-      </c>
-      <c r="E149">
-        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -3000,10 +3000,10 @@
         <v>341</v>
       </c>
       <c r="D151">
+        <v>4</v>
+      </c>
+      <c r="E151">
         <v>3</v>
-      </c>
-      <c r="E151">
-        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -3034,10 +3034,10 @@
         <v>341</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -3051,10 +3051,10 @@
         <v>341</v>
       </c>
       <c r="D154">
+        <v>4</v>
+      </c>
+      <c r="E154">
         <v>3</v>
-      </c>
-      <c r="E154">
-        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -3085,10 +3085,10 @@
         <v>341</v>
       </c>
       <c r="D156">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E156">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -3102,10 +3102,10 @@
         <v>341</v>
       </c>
       <c r="D157">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E157">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -3119,10 +3119,10 @@
         <v>341</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -3153,10 +3153,10 @@
         <v>341</v>
       </c>
       <c r="D160">
+        <v>3</v>
+      </c>
+      <c r="E160">
         <v>7</v>
-      </c>
-      <c r="E160">
-        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -3170,10 +3170,10 @@
         <v>341</v>
       </c>
       <c r="D161">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E161">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -3187,10 +3187,10 @@
         <v>341</v>
       </c>
       <c r="D162">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E162">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -3221,10 +3221,10 @@
         <v>341</v>
       </c>
       <c r="D164">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E164">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -3238,10 +3238,10 @@
         <v>341</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E165">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -3255,10 +3255,10 @@
         <v>341</v>
       </c>
       <c r="D166">
+        <v>4</v>
+      </c>
+      <c r="E166">
         <v>3</v>
-      </c>
-      <c r="E166">
-        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -3272,10 +3272,10 @@
         <v>341</v>
       </c>
       <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
         <v>3</v>
-      </c>
-      <c r="E167">
-        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -3289,10 +3289,10 @@
         <v>341</v>
       </c>
       <c r="D168">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -3306,10 +3306,10 @@
         <v>341</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -3323,10 +3323,10 @@
         <v>341</v>
       </c>
       <c r="D170">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E170">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -3357,10 +3357,10 @@
         <v>341</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E172">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -3374,10 +3374,10 @@
         <v>341</v>
       </c>
       <c r="D173">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E173">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -3408,10 +3408,10 @@
         <v>341</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -3425,10 +3425,10 @@
         <v>356</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -3459,10 +3459,10 @@
         <v>356</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E178">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -3544,10 +3544,10 @@
         <v>356</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E183">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -3561,10 +3561,10 @@
         <v>356</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -3578,10 +3578,10 @@
         <v>356</v>
       </c>
       <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
         <v>3</v>
-      </c>
-      <c r="E185">
-        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -3612,10 +3612,10 @@
         <v>356</v>
       </c>
       <c r="D187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E187">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -3646,10 +3646,10 @@
         <v>356</v>
       </c>
       <c r="D189">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E189">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -3663,10 +3663,10 @@
         <v>356</v>
       </c>
       <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
         <v>3</v>
-      </c>
-      <c r="E190">
-        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -3680,10 +3680,10 @@
         <v>356</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -3714,10 +3714,10 @@
         <v>356</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -3731,10 +3731,10 @@
         <v>356</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -3799,10 +3799,10 @@
         <v>356</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -3816,10 +3816,10 @@
         <v>356</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -3905,6 +3905,499 @@
       </c>
       <c r="E204">
         <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205">
+        <v>365</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206">
+        <v>365</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>2</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207">
+        <v>365</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>2</v>
+      </c>
+      <c r="B208" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208">
+        <v>365</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>3</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209">
+        <v>365</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>3</v>
+      </c>
+      <c r="B210" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210">
+        <v>365</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>4</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211">
+        <v>365</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>4</v>
+      </c>
+      <c r="B212" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212">
+        <v>365</v>
+      </c>
+      <c r="D212">
+        <v>6</v>
+      </c>
+      <c r="E212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>5</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213">
+        <v>365</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>5</v>
+      </c>
+      <c r="B214" t="s">
+        <v>6</v>
+      </c>
+      <c r="C214">
+        <v>365</v>
+      </c>
+      <c r="D214">
+        <v>3</v>
+      </c>
+      <c r="E214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>6</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215">
+        <v>365</v>
+      </c>
+      <c r="D215">
+        <v>2</v>
+      </c>
+      <c r="E215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>6</v>
+      </c>
+      <c r="B216" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216">
+        <v>365</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>7</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217">
+        <v>365</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>7</v>
+      </c>
+      <c r="B218" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218">
+        <v>365</v>
+      </c>
+      <c r="D218">
+        <v>3</v>
+      </c>
+      <c r="E218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>8</v>
+      </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219">
+        <v>365</v>
+      </c>
+      <c r="D219">
+        <v>4</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>8</v>
+      </c>
+      <c r="B220" t="s">
+        <v>6</v>
+      </c>
+      <c r="C220">
+        <v>365</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>9</v>
+      </c>
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221">
+        <v>365</v>
+      </c>
+      <c r="D221">
+        <v>4</v>
+      </c>
+      <c r="E221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>9</v>
+      </c>
+      <c r="B222" t="s">
+        <v>6</v>
+      </c>
+      <c r="C222">
+        <v>365</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>10</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223">
+        <v>365</v>
+      </c>
+      <c r="D223">
+        <v>4</v>
+      </c>
+      <c r="E223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>10</v>
+      </c>
+      <c r="B224" t="s">
+        <v>6</v>
+      </c>
+      <c r="C224">
+        <v>365</v>
+      </c>
+      <c r="D224">
+        <v>4</v>
+      </c>
+      <c r="E224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>11</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225">
+        <v>365</v>
+      </c>
+      <c r="D225">
+        <v>2</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>11</v>
+      </c>
+      <c r="B226" t="s">
+        <v>6</v>
+      </c>
+      <c r="C226">
+        <v>365</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>12</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227">
+        <v>365</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>12</v>
+      </c>
+      <c r="B228" t="s">
+        <v>6</v>
+      </c>
+      <c r="C228">
+        <v>365</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>13</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229">
+        <v>365</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>13</v>
+      </c>
+      <c r="B230" t="s">
+        <v>6</v>
+      </c>
+      <c r="C230">
+        <v>365</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>14</v>
+      </c>
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231">
+        <v>365</v>
+      </c>
+      <c r="D231">
+        <v>3</v>
+      </c>
+      <c r="E231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>14</v>
+      </c>
+      <c r="B232" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232">
+        <v>365</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>15</v>
+      </c>
+      <c r="B233" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233">
+        <v>365</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/fitness_development/MFE_flies.xlsx
+++ b/data/fitness_development/MFE_flies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_18/data/fitness_development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_19/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69C76F9D-6EF2-1842-93FD-AD27AAEF107D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60076FF9-E0C7-5343-BDF2-38F0F945FE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F87DAE63-E76D-134A-8567-557F4C2DF883}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="7">
   <si>
     <t>vial</t>
   </si>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E795774-325B-7540-93CB-61EC9638DF3F}">
-  <dimension ref="A1:E233"/>
+  <dimension ref="A1:E320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="161" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E233" sqref="E233"/>
+    <sheetView tabSelected="1" topLeftCell="A284" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D293" sqref="D293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4400,6 +4400,1485 @@
         <v>1</v>
       </c>
     </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234">
+        <v>380</v>
+      </c>
+      <c r="D234">
+        <v>2</v>
+      </c>
+      <c r="E234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235">
+        <v>380</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>2</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236">
+        <v>380</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>2</v>
+      </c>
+      <c r="B237" t="s">
+        <v>6</v>
+      </c>
+      <c r="C237">
+        <v>380</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>3</v>
+      </c>
+      <c r="B238" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238">
+        <v>380</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>3</v>
+      </c>
+      <c r="B239" t="s">
+        <v>6</v>
+      </c>
+      <c r="C239">
+        <v>380</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>4</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240">
+        <v>380</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>4</v>
+      </c>
+      <c r="B241" t="s">
+        <v>6</v>
+      </c>
+      <c r="C241">
+        <v>380</v>
+      </c>
+      <c r="D241">
+        <v>2</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>5</v>
+      </c>
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242">
+        <v>380</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>5</v>
+      </c>
+      <c r="B243" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243">
+        <v>380</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>6</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244">
+        <v>380</v>
+      </c>
+      <c r="D244">
+        <v>2</v>
+      </c>
+      <c r="E244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>6</v>
+      </c>
+      <c r="B245" t="s">
+        <v>6</v>
+      </c>
+      <c r="C245">
+        <v>380</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>7</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246">
+        <v>380</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>7</v>
+      </c>
+      <c r="B247" t="s">
+        <v>6</v>
+      </c>
+      <c r="C247">
+        <v>380</v>
+      </c>
+      <c r="D247">
+        <v>3</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>8</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248">
+        <v>380</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>8</v>
+      </c>
+      <c r="B249" t="s">
+        <v>6</v>
+      </c>
+      <c r="C249">
+        <v>380</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>9</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250">
+        <v>380</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>9</v>
+      </c>
+      <c r="B251" t="s">
+        <v>6</v>
+      </c>
+      <c r="C251">
+        <v>380</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>10</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252">
+        <v>380</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>10</v>
+      </c>
+      <c r="B253" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253">
+        <v>380</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>11</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254">
+        <v>380</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>11</v>
+      </c>
+      <c r="B255" t="s">
+        <v>6</v>
+      </c>
+      <c r="C255">
+        <v>380</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>12</v>
+      </c>
+      <c r="B256" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256">
+        <v>380</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>12</v>
+      </c>
+      <c r="B257" t="s">
+        <v>6</v>
+      </c>
+      <c r="C257">
+        <v>380</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>13</v>
+      </c>
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258">
+        <v>380</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>13</v>
+      </c>
+      <c r="B259" t="s">
+        <v>6</v>
+      </c>
+      <c r="C259">
+        <v>380</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>14</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260">
+        <v>380</v>
+      </c>
+      <c r="D260">
+        <v>2</v>
+      </c>
+      <c r="E260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>14</v>
+      </c>
+      <c r="B261" t="s">
+        <v>6</v>
+      </c>
+      <c r="C261">
+        <v>380</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>15</v>
+      </c>
+      <c r="B262" t="s">
+        <v>6</v>
+      </c>
+      <c r="C262">
+        <v>380</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263">
+        <v>389</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+      <c r="E263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>1</v>
+      </c>
+      <c r="B264" t="s">
+        <v>6</v>
+      </c>
+      <c r="C264">
+        <v>389</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>2</v>
+      </c>
+      <c r="B265" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265">
+        <v>389</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>2</v>
+      </c>
+      <c r="B266" t="s">
+        <v>6</v>
+      </c>
+      <c r="C266">
+        <v>389</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>3</v>
+      </c>
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267">
+        <v>389</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>3</v>
+      </c>
+      <c r="B268" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268">
+        <v>389</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>4</v>
+      </c>
+      <c r="B269" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269">
+        <v>389</v>
+      </c>
+      <c r="D269">
+        <v>2</v>
+      </c>
+      <c r="E269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>4</v>
+      </c>
+      <c r="B270" t="s">
+        <v>6</v>
+      </c>
+      <c r="C270">
+        <v>389</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+      <c r="E270">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>5</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271">
+        <v>389</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>5</v>
+      </c>
+      <c r="B272" t="s">
+        <v>6</v>
+      </c>
+      <c r="C272">
+        <v>389</v>
+      </c>
+      <c r="D272">
+        <v>2</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>6</v>
+      </c>
+      <c r="B273" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273">
+        <v>389</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+      <c r="E273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>6</v>
+      </c>
+      <c r="B274" t="s">
+        <v>6</v>
+      </c>
+      <c r="C274">
+        <v>389</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>7</v>
+      </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275">
+        <v>389</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>7</v>
+      </c>
+      <c r="B276" t="s">
+        <v>6</v>
+      </c>
+      <c r="C276">
+        <v>389</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>8</v>
+      </c>
+      <c r="B277" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277">
+        <v>389</v>
+      </c>
+      <c r="D277">
+        <v>2</v>
+      </c>
+      <c r="E277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>8</v>
+      </c>
+      <c r="B278" t="s">
+        <v>6</v>
+      </c>
+      <c r="C278">
+        <v>389</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>9</v>
+      </c>
+      <c r="B279" t="s">
+        <v>5</v>
+      </c>
+      <c r="C279">
+        <v>389</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="E279">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>9</v>
+      </c>
+      <c r="B280" t="s">
+        <v>6</v>
+      </c>
+      <c r="C280">
+        <v>389</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>10</v>
+      </c>
+      <c r="B281" t="s">
+        <v>5</v>
+      </c>
+      <c r="C281">
+        <v>389</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>10</v>
+      </c>
+      <c r="B282" t="s">
+        <v>6</v>
+      </c>
+      <c r="C282">
+        <v>389</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>11</v>
+      </c>
+      <c r="B283" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283">
+        <v>389</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>11</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284">
+        <v>389</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>12</v>
+      </c>
+      <c r="B285" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285">
+        <v>389</v>
+      </c>
+      <c r="D285">
+        <v>3</v>
+      </c>
+      <c r="E285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>12</v>
+      </c>
+      <c r="B286" t="s">
+        <v>6</v>
+      </c>
+      <c r="C286">
+        <v>389</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>13</v>
+      </c>
+      <c r="B287" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287">
+        <v>389</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>13</v>
+      </c>
+      <c r="B288" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288">
+        <v>389</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>14</v>
+      </c>
+      <c r="B289" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289">
+        <v>389</v>
+      </c>
+      <c r="D289">
+        <v>2</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>14</v>
+      </c>
+      <c r="B290" t="s">
+        <v>6</v>
+      </c>
+      <c r="C290">
+        <v>389</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>15</v>
+      </c>
+      <c r="B291" t="s">
+        <v>6</v>
+      </c>
+      <c r="C291">
+        <v>389</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>1</v>
+      </c>
+      <c r="B292" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292">
+        <v>404</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+      <c r="E292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>1</v>
+      </c>
+      <c r="B293" t="s">
+        <v>6</v>
+      </c>
+      <c r="C293">
+        <v>404</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>2</v>
+      </c>
+      <c r="B294" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294">
+        <v>404</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>2</v>
+      </c>
+      <c r="B295" t="s">
+        <v>6</v>
+      </c>
+      <c r="C295">
+        <v>404</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>3</v>
+      </c>
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296">
+        <v>404</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>3</v>
+      </c>
+      <c r="B297" t="s">
+        <v>6</v>
+      </c>
+      <c r="C297">
+        <v>404</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>4</v>
+      </c>
+      <c r="B298" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298">
+        <v>404</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>4</v>
+      </c>
+      <c r="B299" t="s">
+        <v>6</v>
+      </c>
+      <c r="C299">
+        <v>404</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>5</v>
+      </c>
+      <c r="B300" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300">
+        <v>404</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>5</v>
+      </c>
+      <c r="B301" t="s">
+        <v>6</v>
+      </c>
+      <c r="C301">
+        <v>404</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>6</v>
+      </c>
+      <c r="B302" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302">
+        <v>404</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>6</v>
+      </c>
+      <c r="B303" t="s">
+        <v>6</v>
+      </c>
+      <c r="C303">
+        <v>404</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>7</v>
+      </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304">
+        <v>404</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>7</v>
+      </c>
+      <c r="B305" t="s">
+        <v>6</v>
+      </c>
+      <c r="C305">
+        <v>404</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>8</v>
+      </c>
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306">
+        <v>404</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+      <c r="E306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>8</v>
+      </c>
+      <c r="B307" t="s">
+        <v>6</v>
+      </c>
+      <c r="C307">
+        <v>404</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>9</v>
+      </c>
+      <c r="B308" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308">
+        <v>404</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>9</v>
+      </c>
+      <c r="B309" t="s">
+        <v>6</v>
+      </c>
+      <c r="C309">
+        <v>404</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>10</v>
+      </c>
+      <c r="B310" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310">
+        <v>404</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>10</v>
+      </c>
+      <c r="B311" t="s">
+        <v>6</v>
+      </c>
+      <c r="C311">
+        <v>404</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+      <c r="E311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>11</v>
+      </c>
+      <c r="B312" t="s">
+        <v>5</v>
+      </c>
+      <c r="C312">
+        <v>404</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>11</v>
+      </c>
+      <c r="B313" t="s">
+        <v>6</v>
+      </c>
+      <c r="C313">
+        <v>404</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>12</v>
+      </c>
+      <c r="B314" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314">
+        <v>404</v>
+      </c>
+      <c r="D314">
+        <v>2</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>12</v>
+      </c>
+      <c r="B315" t="s">
+        <v>6</v>
+      </c>
+      <c r="C315">
+        <v>404</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>13</v>
+      </c>
+      <c r="B316" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316">
+        <v>404</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>13</v>
+      </c>
+      <c r="B317" t="s">
+        <v>6</v>
+      </c>
+      <c r="C317">
+        <v>404</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>14</v>
+      </c>
+      <c r="B318" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318">
+        <v>404</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>14</v>
+      </c>
+      <c r="B319" t="s">
+        <v>6</v>
+      </c>
+      <c r="C319">
+        <v>404</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>15</v>
+      </c>
+      <c r="B320" t="s">
+        <v>6</v>
+      </c>
+      <c r="C320">
+        <v>404</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fitness_development/MFE_flies.xlsx
+++ b/data/fitness_development/MFE_flies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_19/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60076FF9-E0C7-5343-BDF2-38F0F945FE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF6B70DB-F89E-1041-ABAD-3D5F559AAE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F87DAE63-E76D-134A-8567-557F4C2DF883}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F87DAE63-E76D-134A-8567-557F4C2DF883}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="10">
   <si>
     <t>vial</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>unconditioned</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>EF</t>
   </si>
 </sst>
 </file>
@@ -428,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E795774-325B-7540-93CB-61EC9638DF3F}">
-  <dimension ref="A1:E320"/>
+  <dimension ref="A1:F378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D293" sqref="D293"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I375" sqref="I375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,7 +448,7 @@
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,8 +464,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -472,8 +484,11 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -489,8 +504,11 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -506,8 +524,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -523,8 +544,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -540,8 +564,11 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -557,8 +584,11 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -574,8 +604,11 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -591,8 +624,11 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -608,8 +644,11 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -625,8 +664,11 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -642,8 +684,11 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -659,8 +704,11 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
       </c>
@@ -676,8 +724,11 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7</v>
       </c>
@@ -693,8 +744,11 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8</v>
       </c>
@@ -710,8 +764,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
@@ -727,8 +784,11 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -744,8 +804,11 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9</v>
       </c>
@@ -761,8 +824,11 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10</v>
       </c>
@@ -778,8 +844,11 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10</v>
       </c>
@@ -795,8 +864,11 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>11</v>
       </c>
@@ -812,8 +884,11 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
@@ -829,8 +904,11 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12</v>
       </c>
@@ -846,8 +924,11 @@
       <c r="E24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>12</v>
       </c>
@@ -863,8 +944,11 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>13</v>
       </c>
@@ -880,8 +964,11 @@
       <c r="E26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>13</v>
       </c>
@@ -897,8 +984,11 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>14</v>
       </c>
@@ -914,8 +1004,11 @@
       <c r="E28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>14</v>
       </c>
@@ -931,8 +1024,11 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>15</v>
       </c>
@@ -948,8 +1044,11 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -965,8 +1064,11 @@
       <c r="E31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -982,8 +1084,11 @@
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -999,8 +1104,11 @@
       <c r="E33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1016,8 +1124,11 @@
       <c r="E34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1033,8 +1144,11 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1050,8 +1164,11 @@
       <c r="E36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1067,8 +1184,11 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1084,8 +1204,11 @@
       <c r="E38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1101,8 +1224,11 @@
       <c r="E39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1118,8 +1244,11 @@
       <c r="E40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>6</v>
       </c>
@@ -1135,8 +1264,11 @@
       <c r="E41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>6</v>
       </c>
@@ -1152,8 +1284,11 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7</v>
       </c>
@@ -1169,8 +1304,11 @@
       <c r="E43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1186,8 +1324,11 @@
       <c r="E44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1203,8 +1344,11 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>8</v>
       </c>
@@ -1220,8 +1364,11 @@
       <c r="E46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>9</v>
       </c>
@@ -1237,8 +1384,11 @@
       <c r="E47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>9</v>
       </c>
@@ -1254,8 +1404,11 @@
       <c r="E48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>10</v>
       </c>
@@ -1271,8 +1424,11 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>10</v>
       </c>
@@ -1288,8 +1444,11 @@
       <c r="E50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>11</v>
       </c>
@@ -1305,8 +1464,11 @@
       <c r="E51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>11</v>
       </c>
@@ -1322,8 +1484,11 @@
       <c r="E52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>12</v>
       </c>
@@ -1339,8 +1504,11 @@
       <c r="E53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>12</v>
       </c>
@@ -1356,8 +1524,11 @@
       <c r="E54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>13</v>
       </c>
@@ -1373,8 +1544,11 @@
       <c r="E55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>13</v>
       </c>
@@ -1390,8 +1564,11 @@
       <c r="E56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>14</v>
       </c>
@@ -1407,8 +1584,11 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>14</v>
       </c>
@@ -1424,8 +1604,11 @@
       <c r="E58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>15</v>
       </c>
@@ -1441,8 +1624,11 @@
       <c r="E59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
@@ -1458,8 +1644,11 @@
       <c r="E60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
@@ -1475,8 +1664,11 @@
       <c r="E61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2</v>
       </c>
@@ -1492,8 +1684,11 @@
       <c r="E62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2</v>
       </c>
@@ -1509,8 +1704,11 @@
       <c r="E63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3</v>
       </c>
@@ -1526,8 +1724,11 @@
       <c r="E64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3</v>
       </c>
@@ -1543,8 +1744,11 @@
       <c r="E65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4</v>
       </c>
@@ -1560,8 +1764,11 @@
       <c r="E66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4</v>
       </c>
@@ -1577,8 +1784,11 @@
       <c r="E67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>5</v>
       </c>
@@ -1594,8 +1804,11 @@
       <c r="E68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>5</v>
       </c>
@@ -1611,8 +1824,11 @@
       <c r="E69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>6</v>
       </c>
@@ -1628,8 +1844,11 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>6</v>
       </c>
@@ -1645,8 +1864,11 @@
       <c r="E71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>7</v>
       </c>
@@ -1662,8 +1884,11 @@
       <c r="E72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>7</v>
       </c>
@@ -1679,8 +1904,11 @@
       <c r="E73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>8</v>
       </c>
@@ -1696,8 +1924,11 @@
       <c r="E74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>8</v>
       </c>
@@ -1713,8 +1944,11 @@
       <c r="E75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>9</v>
       </c>
@@ -1730,8 +1964,11 @@
       <c r="E76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>9</v>
       </c>
@@ -1747,8 +1984,11 @@
       <c r="E77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>10</v>
       </c>
@@ -1764,8 +2004,11 @@
       <c r="E78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>10</v>
       </c>
@@ -1781,8 +2024,11 @@
       <c r="E79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>11</v>
       </c>
@@ -1798,8 +2044,11 @@
       <c r="E80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>11</v>
       </c>
@@ -1815,8 +2064,11 @@
       <c r="E81">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>12</v>
       </c>
@@ -1832,8 +2084,11 @@
       <c r="E82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>12</v>
       </c>
@@ -1849,8 +2104,11 @@
       <c r="E83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>13</v>
       </c>
@@ -1866,8 +2124,11 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>13</v>
       </c>
@@ -1883,8 +2144,11 @@
       <c r="E85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>14</v>
       </c>
@@ -1900,8 +2164,11 @@
       <c r="E86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>14</v>
       </c>
@@ -1917,8 +2184,11 @@
       <c r="E87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>15</v>
       </c>
@@ -1934,8 +2204,11 @@
       <c r="E88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -1951,8 +2224,11 @@
       <c r="E89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
@@ -1968,8 +2244,11 @@
       <c r="E90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2</v>
       </c>
@@ -1985,8 +2264,11 @@
       <c r="E91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2</v>
       </c>
@@ -2002,8 +2284,11 @@
       <c r="E92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>3</v>
       </c>
@@ -2019,8 +2304,11 @@
       <c r="E93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>3</v>
       </c>
@@ -2036,8 +2324,11 @@
       <c r="E94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>4</v>
       </c>
@@ -2053,8 +2344,11 @@
       <c r="E95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>4</v>
       </c>
@@ -2070,8 +2364,11 @@
       <c r="E96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5</v>
       </c>
@@ -2087,8 +2384,11 @@
       <c r="E97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>5</v>
       </c>
@@ -2104,8 +2404,11 @@
       <c r="E98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>6</v>
       </c>
@@ -2121,8 +2424,11 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>6</v>
       </c>
@@ -2138,8 +2444,11 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>7</v>
       </c>
@@ -2155,8 +2464,11 @@
       <c r="E101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>7</v>
       </c>
@@ -2172,8 +2484,11 @@
       <c r="E102">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>8</v>
       </c>
@@ -2189,8 +2504,11 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>8</v>
       </c>
@@ -2206,8 +2524,11 @@
       <c r="E104">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>9</v>
       </c>
@@ -2223,8 +2544,11 @@
       <c r="E105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>9</v>
       </c>
@@ -2240,8 +2564,11 @@
       <c r="E106">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>10</v>
       </c>
@@ -2257,8 +2584,11 @@
       <c r="E107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>10</v>
       </c>
@@ -2274,8 +2604,11 @@
       <c r="E108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>11</v>
       </c>
@@ -2291,8 +2624,11 @@
       <c r="E109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>11</v>
       </c>
@@ -2308,8 +2644,11 @@
       <c r="E110">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>12</v>
       </c>
@@ -2325,8 +2664,11 @@
       <c r="E111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>12</v>
       </c>
@@ -2342,8 +2684,11 @@
       <c r="E112">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>13</v>
       </c>
@@ -2359,8 +2704,11 @@
       <c r="E113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>13</v>
       </c>
@@ -2376,8 +2724,11 @@
       <c r="E114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>14</v>
       </c>
@@ -2393,8 +2744,11 @@
       <c r="E115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>14</v>
       </c>
@@ -2410,8 +2764,11 @@
       <c r="E116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>15</v>
       </c>
@@ -2427,8 +2784,11 @@
       <c r="E117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1</v>
       </c>
@@ -2444,8 +2804,11 @@
       <c r="E118">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1</v>
       </c>
@@ -2461,8 +2824,11 @@
       <c r="E119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2</v>
       </c>
@@ -2478,8 +2844,11 @@
       <c r="E120">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2</v>
       </c>
@@ -2495,8 +2864,11 @@
       <c r="E121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>3</v>
       </c>
@@ -2512,8 +2884,11 @@
       <c r="E122">
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>3</v>
       </c>
@@ -2529,8 +2904,11 @@
       <c r="E123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>4</v>
       </c>
@@ -2546,8 +2924,11 @@
       <c r="E124">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>4</v>
       </c>
@@ -2563,8 +2944,11 @@
       <c r="E125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>5</v>
       </c>
@@ -2580,8 +2964,11 @@
       <c r="E126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>5</v>
       </c>
@@ -2597,8 +2984,11 @@
       <c r="E127">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>6</v>
       </c>
@@ -2614,8 +3004,11 @@
       <c r="E128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>6</v>
       </c>
@@ -2631,8 +3024,11 @@
       <c r="E129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>7</v>
       </c>
@@ -2648,8 +3044,11 @@
       <c r="E130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>7</v>
       </c>
@@ -2665,8 +3064,11 @@
       <c r="E131">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>8</v>
       </c>
@@ -2682,8 +3084,11 @@
       <c r="E132">
         <v>5</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>8</v>
       </c>
@@ -2699,8 +3104,11 @@
       <c r="E133">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>9</v>
       </c>
@@ -2716,8 +3124,11 @@
       <c r="E134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>9</v>
       </c>
@@ -2733,8 +3144,11 @@
       <c r="E135">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>10</v>
       </c>
@@ -2750,8 +3164,11 @@
       <c r="E136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>10</v>
       </c>
@@ -2767,8 +3184,11 @@
       <c r="E137">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>11</v>
       </c>
@@ -2784,8 +3204,11 @@
       <c r="E138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>11</v>
       </c>
@@ -2801,8 +3224,11 @@
       <c r="E139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>12</v>
       </c>
@@ -2818,8 +3244,11 @@
       <c r="E140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>12</v>
       </c>
@@ -2835,8 +3264,11 @@
       <c r="E141">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>13</v>
       </c>
@@ -2852,8 +3284,11 @@
       <c r="E142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>13</v>
       </c>
@@ -2869,8 +3304,11 @@
       <c r="E143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>14</v>
       </c>
@@ -2886,8 +3324,11 @@
       <c r="E144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>14</v>
       </c>
@@ -2903,8 +3344,11 @@
       <c r="E145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>15</v>
       </c>
@@ -2920,8 +3364,11 @@
       <c r="E146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1</v>
       </c>
@@ -2937,8 +3384,11 @@
       <c r="E147">
         <v>6</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1</v>
       </c>
@@ -2954,8 +3404,11 @@
       <c r="E148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2</v>
       </c>
@@ -2971,8 +3424,11 @@
       <c r="E149">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2</v>
       </c>
@@ -2988,8 +3444,11 @@
       <c r="E150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>3</v>
       </c>
@@ -3005,8 +3464,11 @@
       <c r="E151">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>3</v>
       </c>
@@ -3022,8 +3484,11 @@
       <c r="E152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>4</v>
       </c>
@@ -3039,8 +3504,11 @@
       <c r="E153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>4</v>
       </c>
@@ -3056,8 +3524,11 @@
       <c r="E154">
         <v>3</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>5</v>
       </c>
@@ -3073,8 +3544,11 @@
       <c r="E155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>5</v>
       </c>
@@ -3090,8 +3564,11 @@
       <c r="E156">
         <v>5</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>6</v>
       </c>
@@ -3107,8 +3584,11 @@
       <c r="E157">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>6</v>
       </c>
@@ -3124,8 +3604,11 @@
       <c r="E158">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>7</v>
       </c>
@@ -3141,8 +3624,11 @@
       <c r="E159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>7</v>
       </c>
@@ -3158,8 +3644,11 @@
       <c r="E160">
         <v>7</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>8</v>
       </c>
@@ -3175,8 +3664,11 @@
       <c r="E161">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>8</v>
       </c>
@@ -3192,8 +3684,11 @@
       <c r="E162">
         <v>6</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>9</v>
       </c>
@@ -3209,8 +3704,11 @@
       <c r="E163">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>9</v>
       </c>
@@ -3226,8 +3724,11 @@
       <c r="E164">
         <v>5</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>10</v>
       </c>
@@ -3243,8 +3744,11 @@
       <c r="E165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>10</v>
       </c>
@@ -3260,8 +3764,11 @@
       <c r="E166">
         <v>3</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>11</v>
       </c>
@@ -3277,8 +3784,11 @@
       <c r="E167">
         <v>3</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>11</v>
       </c>
@@ -3294,8 +3804,11 @@
       <c r="E168">
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>12</v>
       </c>
@@ -3311,8 +3824,11 @@
       <c r="E169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>12</v>
       </c>
@@ -3328,8 +3844,11 @@
       <c r="E170">
         <v>6</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>13</v>
       </c>
@@ -3345,8 +3864,11 @@
       <c r="E171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>13</v>
       </c>
@@ -3362,8 +3884,11 @@
       <c r="E172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>14</v>
       </c>
@@ -3379,8 +3904,11 @@
       <c r="E173">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>14</v>
       </c>
@@ -3396,8 +3924,11 @@
       <c r="E174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>15</v>
       </c>
@@ -3413,8 +3944,11 @@
       <c r="E175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1</v>
       </c>
@@ -3430,8 +3964,11 @@
       <c r="E176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1</v>
       </c>
@@ -3447,8 +3984,11 @@
       <c r="E177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2</v>
       </c>
@@ -3464,8 +4004,11 @@
       <c r="E178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2</v>
       </c>
@@ -3481,8 +4024,11 @@
       <c r="E179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>3</v>
       </c>
@@ -3498,8 +4044,11 @@
       <c r="E180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>3</v>
       </c>
@@ -3515,8 +4064,11 @@
       <c r="E181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>4</v>
       </c>
@@ -3532,8 +4084,11 @@
       <c r="E182">
         <v>4</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>4</v>
       </c>
@@ -3549,8 +4104,11 @@
       <c r="E183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>5</v>
       </c>
@@ -3566,8 +4124,11 @@
       <c r="E184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>5</v>
       </c>
@@ -3583,8 +4144,11 @@
       <c r="E185">
         <v>3</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>6</v>
       </c>
@@ -3600,8 +4164,11 @@
       <c r="E186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>6</v>
       </c>
@@ -3617,8 +4184,11 @@
       <c r="E187">
         <v>4</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>7</v>
       </c>
@@ -3634,8 +4204,11 @@
       <c r="E188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>7</v>
       </c>
@@ -3651,8 +4224,11 @@
       <c r="E189">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>8</v>
       </c>
@@ -3668,8 +4244,11 @@
       <c r="E190">
         <v>3</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>8</v>
       </c>
@@ -3685,8 +4264,11 @@
       <c r="E191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>9</v>
       </c>
@@ -3702,8 +4284,11 @@
       <c r="E192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>9</v>
       </c>
@@ -3719,8 +4304,11 @@
       <c r="E193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>10</v>
       </c>
@@ -3736,8 +4324,11 @@
       <c r="E194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>10</v>
       </c>
@@ -3753,8 +4344,11 @@
       <c r="E195">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>11</v>
       </c>
@@ -3770,8 +4364,11 @@
       <c r="E196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>11</v>
       </c>
@@ -3787,8 +4384,11 @@
       <c r="E197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F197" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>12</v>
       </c>
@@ -3804,8 +4404,11 @@
       <c r="E198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>12</v>
       </c>
@@ -3821,8 +4424,11 @@
       <c r="E199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F199" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>13</v>
       </c>
@@ -3838,8 +4444,11 @@
       <c r="E200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F200" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>13</v>
       </c>
@@ -3855,8 +4464,11 @@
       <c r="E201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>14</v>
       </c>
@@ -3872,8 +4484,11 @@
       <c r="E202">
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>14</v>
       </c>
@@ -3889,8 +4504,11 @@
       <c r="E203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>15</v>
       </c>
@@ -3906,8 +4524,11 @@
       <c r="E204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1</v>
       </c>
@@ -3923,8 +4544,11 @@
       <c r="E205">
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1</v>
       </c>
@@ -3940,8 +4564,11 @@
       <c r="E206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F206" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2</v>
       </c>
@@ -3957,8 +4584,11 @@
       <c r="E207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2</v>
       </c>
@@ -3974,8 +4604,11 @@
       <c r="E208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F208" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>3</v>
       </c>
@@ -3991,8 +4624,11 @@
       <c r="E209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>3</v>
       </c>
@@ -4008,8 +4644,11 @@
       <c r="E210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F210" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>4</v>
       </c>
@@ -4025,8 +4664,11 @@
       <c r="E211">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>4</v>
       </c>
@@ -4042,8 +4684,11 @@
       <c r="E212">
         <v>4</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>5</v>
       </c>
@@ -4059,8 +4704,11 @@
       <c r="E213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>5</v>
       </c>
@@ -4076,8 +4724,11 @@
       <c r="E214">
         <v>3</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F214" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>6</v>
       </c>
@@ -4093,8 +4744,11 @@
       <c r="E215">
         <v>3</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F215" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>6</v>
       </c>
@@ -4110,8 +4764,11 @@
       <c r="E216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>7</v>
       </c>
@@ -4127,8 +4784,11 @@
       <c r="E217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F217" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>7</v>
       </c>
@@ -4144,8 +4804,11 @@
       <c r="E218">
         <v>4</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F218" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>8</v>
       </c>
@@ -4161,8 +4824,11 @@
       <c r="E219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F219" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>8</v>
       </c>
@@ -4178,8 +4844,11 @@
       <c r="E220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F220" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>9</v>
       </c>
@@ -4195,8 +4864,11 @@
       <c r="E221">
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F221" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>9</v>
       </c>
@@ -4212,8 +4884,11 @@
       <c r="E222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F222" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>10</v>
       </c>
@@ -4229,8 +4904,11 @@
       <c r="E223">
         <v>2</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F223" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>10</v>
       </c>
@@ -4246,8 +4924,11 @@
       <c r="E224">
         <v>2</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F224" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>11</v>
       </c>
@@ -4263,8 +4944,11 @@
       <c r="E225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F225" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>11</v>
       </c>
@@ -4280,8 +4964,11 @@
       <c r="E226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F226" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>12</v>
       </c>
@@ -4297,8 +4984,11 @@
       <c r="E227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F227" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>12</v>
       </c>
@@ -4314,8 +5004,11 @@
       <c r="E228">
         <v>5</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F228" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>13</v>
       </c>
@@ -4331,8 +5024,11 @@
       <c r="E229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F229" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>13</v>
       </c>
@@ -4348,8 +5044,11 @@
       <c r="E230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F230" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>14</v>
       </c>
@@ -4365,8 +5064,11 @@
       <c r="E231">
         <v>4</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F231" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>14</v>
       </c>
@@ -4382,8 +5084,11 @@
       <c r="E232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F232" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>15</v>
       </c>
@@ -4399,8 +5104,11 @@
       <c r="E233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F233" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1</v>
       </c>
@@ -4416,8 +5124,11 @@
       <c r="E234">
         <v>4</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F234" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1</v>
       </c>
@@ -4433,8 +5144,11 @@
       <c r="E235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F235" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2</v>
       </c>
@@ -4450,8 +5164,11 @@
       <c r="E236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F236" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2</v>
       </c>
@@ -4467,8 +5184,11 @@
       <c r="E237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F237" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>3</v>
       </c>
@@ -4484,8 +5204,11 @@
       <c r="E238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F238" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>3</v>
       </c>
@@ -4501,8 +5224,11 @@
       <c r="E239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F239" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>4</v>
       </c>
@@ -4518,8 +5244,11 @@
       <c r="E240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F240" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>4</v>
       </c>
@@ -4535,8 +5264,11 @@
       <c r="E241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F241" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>5</v>
       </c>
@@ -4552,8 +5284,11 @@
       <c r="E242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F242" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>5</v>
       </c>
@@ -4569,8 +5304,11 @@
       <c r="E243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F243" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>6</v>
       </c>
@@ -4586,8 +5324,11 @@
       <c r="E244">
         <v>2</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F244" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>6</v>
       </c>
@@ -4603,8 +5344,11 @@
       <c r="E245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F245" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>7</v>
       </c>
@@ -4620,8 +5364,11 @@
       <c r="E246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F246" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>7</v>
       </c>
@@ -4637,8 +5384,11 @@
       <c r="E247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F247" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>8</v>
       </c>
@@ -4654,8 +5404,11 @@
       <c r="E248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F248" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>8</v>
       </c>
@@ -4671,8 +5424,11 @@
       <c r="E249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F249" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>9</v>
       </c>
@@ -4688,8 +5444,11 @@
       <c r="E250">
         <v>2</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F250" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>9</v>
       </c>
@@ -4705,8 +5464,11 @@
       <c r="E251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F251" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>10</v>
       </c>
@@ -4722,8 +5484,11 @@
       <c r="E252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F252" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>10</v>
       </c>
@@ -4739,8 +5504,11 @@
       <c r="E253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F253" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>11</v>
       </c>
@@ -4756,8 +5524,11 @@
       <c r="E254">
         <v>3</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F254" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>11</v>
       </c>
@@ -4773,8 +5544,11 @@
       <c r="E255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F255" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>12</v>
       </c>
@@ -4790,8 +5564,11 @@
       <c r="E256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F256" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>12</v>
       </c>
@@ -4807,8 +5584,11 @@
       <c r="E257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F257" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>13</v>
       </c>
@@ -4824,8 +5604,11 @@
       <c r="E258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F258" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>13</v>
       </c>
@@ -4841,8 +5624,11 @@
       <c r="E259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F259" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>14</v>
       </c>
@@ -4858,8 +5644,11 @@
       <c r="E260">
         <v>3</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F260" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>14</v>
       </c>
@@ -4875,8 +5664,11 @@
       <c r="E261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F261" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>15</v>
       </c>
@@ -4892,8 +5684,11 @@
       <c r="E262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F262" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>1</v>
       </c>
@@ -4909,8 +5704,11 @@
       <c r="E263">
         <v>2</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F263" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>1</v>
       </c>
@@ -4926,8 +5724,11 @@
       <c r="E264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F264" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2</v>
       </c>
@@ -4943,8 +5744,11 @@
       <c r="E265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F265" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>2</v>
       </c>
@@ -4960,8 +5764,11 @@
       <c r="E266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F266" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>3</v>
       </c>
@@ -4977,8 +5784,11 @@
       <c r="E267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F267" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>3</v>
       </c>
@@ -4994,8 +5804,11 @@
       <c r="E268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F268" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>4</v>
       </c>
@@ -5011,8 +5824,11 @@
       <c r="E269">
         <v>2</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F269" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>4</v>
       </c>
@@ -5028,8 +5844,11 @@
       <c r="E270">
         <v>5</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F270" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>5</v>
       </c>
@@ -5045,8 +5864,11 @@
       <c r="E271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F271" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>5</v>
       </c>
@@ -5062,8 +5884,11 @@
       <c r="E272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F272" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>6</v>
       </c>
@@ -5079,8 +5904,11 @@
       <c r="E273">
         <v>3</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F273" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>6</v>
       </c>
@@ -5096,8 +5924,11 @@
       <c r="E274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F274" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>7</v>
       </c>
@@ -5113,8 +5944,11 @@
       <c r="E275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F275" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>7</v>
       </c>
@@ -5130,8 +5964,11 @@
       <c r="E276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F276" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>8</v>
       </c>
@@ -5147,8 +5984,11 @@
       <c r="E277">
         <v>2</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F277" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>8</v>
       </c>
@@ -5164,8 +6004,11 @@
       <c r="E278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F278" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>9</v>
       </c>
@@ -5181,8 +6024,11 @@
       <c r="E279">
         <v>5</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F279" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>9</v>
       </c>
@@ -5198,8 +6044,11 @@
       <c r="E280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F280" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>10</v>
       </c>
@@ -5215,8 +6064,11 @@
       <c r="E281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F281" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>10</v>
       </c>
@@ -5232,8 +6084,11 @@
       <c r="E282">
         <v>2</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F282" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>11</v>
       </c>
@@ -5249,8 +6104,11 @@
       <c r="E283">
         <v>2</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F283" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>11</v>
       </c>
@@ -5266,8 +6124,11 @@
       <c r="E284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F284" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>12</v>
       </c>
@@ -5283,8 +6144,11 @@
       <c r="E285">
         <v>4</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F285" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>12</v>
       </c>
@@ -5300,8 +6164,11 @@
       <c r="E286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F286" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>13</v>
       </c>
@@ -5317,8 +6184,11 @@
       <c r="E287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F287" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>13</v>
       </c>
@@ -5334,8 +6204,11 @@
       <c r="E288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F288" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>14</v>
       </c>
@@ -5351,8 +6224,11 @@
       <c r="E289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F289" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>14</v>
       </c>
@@ -5368,8 +6244,11 @@
       <c r="E290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F290" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>15</v>
       </c>
@@ -5385,8 +6264,11 @@
       <c r="E291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F291" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>1</v>
       </c>
@@ -5402,8 +6284,11 @@
       <c r="E292">
         <v>2</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F292" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>1</v>
       </c>
@@ -5419,8 +6304,11 @@
       <c r="E293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F293" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2</v>
       </c>
@@ -5436,8 +6324,11 @@
       <c r="E294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F294" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2</v>
       </c>
@@ -5453,8 +6344,11 @@
       <c r="E295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F295" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>3</v>
       </c>
@@ -5470,8 +6364,11 @@
       <c r="E296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F296" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>3</v>
       </c>
@@ -5487,8 +6384,11 @@
       <c r="E297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F297" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>4</v>
       </c>
@@ -5504,8 +6404,11 @@
       <c r="E298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F298" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>4</v>
       </c>
@@ -5521,8 +6424,11 @@
       <c r="E299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F299" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>5</v>
       </c>
@@ -5538,8 +6444,11 @@
       <c r="E300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F300" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>5</v>
       </c>
@@ -5555,8 +6464,11 @@
       <c r="E301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F301" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>6</v>
       </c>
@@ -5572,8 +6484,11 @@
       <c r="E302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F302" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>6</v>
       </c>
@@ -5589,8 +6504,11 @@
       <c r="E303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F303" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>7</v>
       </c>
@@ -5606,8 +6524,11 @@
       <c r="E304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F304" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>7</v>
       </c>
@@ -5623,8 +6544,11 @@
       <c r="E305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F305" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>8</v>
       </c>
@@ -5640,8 +6564,11 @@
       <c r="E306">
         <v>2</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F306" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>8</v>
       </c>
@@ -5657,8 +6584,11 @@
       <c r="E307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F307" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>9</v>
       </c>
@@ -5674,8 +6604,11 @@
       <c r="E308">
         <v>2</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F308" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>9</v>
       </c>
@@ -5691,8 +6624,11 @@
       <c r="E309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F309" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>10</v>
       </c>
@@ -5708,8 +6644,11 @@
       <c r="E310">
         <v>3</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F310" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>10</v>
       </c>
@@ -5725,8 +6664,11 @@
       <c r="E311">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F311" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>11</v>
       </c>
@@ -5742,8 +6684,11 @@
       <c r="E312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F312" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>11</v>
       </c>
@@ -5759,8 +6704,11 @@
       <c r="E313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F313" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>12</v>
       </c>
@@ -5776,8 +6724,11 @@
       <c r="E314">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F314" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>12</v>
       </c>
@@ -5793,8 +6744,11 @@
       <c r="E315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F315" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>13</v>
       </c>
@@ -5810,8 +6764,11 @@
       <c r="E316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F316" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>13</v>
       </c>
@@ -5827,8 +6784,11 @@
       <c r="E317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F317" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>14</v>
       </c>
@@ -5844,8 +6804,11 @@
       <c r="E318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F318" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>14</v>
       </c>
@@ -5861,8 +6824,11 @@
       <c r="E319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F319" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>15</v>
       </c>
@@ -5877,6 +6843,1169 @@
       </c>
       <c r="E320">
         <v>0</v>
+      </c>
+      <c r="F320" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>1</v>
+      </c>
+      <c r="B321" t="s">
+        <v>5</v>
+      </c>
+      <c r="C321">
+        <v>411</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
+      <c r="F321" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>1</v>
+      </c>
+      <c r="B322" t="s">
+        <v>6</v>
+      </c>
+      <c r="C322">
+        <v>411</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>2</v>
+      </c>
+      <c r="B323" t="s">
+        <v>5</v>
+      </c>
+      <c r="C323">
+        <v>411</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>2</v>
+      </c>
+      <c r="B324" t="s">
+        <v>6</v>
+      </c>
+      <c r="C324">
+        <v>411</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>3</v>
+      </c>
+      <c r="B325" t="s">
+        <v>5</v>
+      </c>
+      <c r="C325">
+        <v>411</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325">
+        <v>1</v>
+      </c>
+      <c r="F325" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>3</v>
+      </c>
+      <c r="B326" t="s">
+        <v>6</v>
+      </c>
+      <c r="C326">
+        <v>411</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>4</v>
+      </c>
+      <c r="B327" t="s">
+        <v>5</v>
+      </c>
+      <c r="C327">
+        <v>411</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>4</v>
+      </c>
+      <c r="B328" t="s">
+        <v>6</v>
+      </c>
+      <c r="C328">
+        <v>411</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>5</v>
+      </c>
+      <c r="B329" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329">
+        <v>411</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>5</v>
+      </c>
+      <c r="B330" t="s">
+        <v>6</v>
+      </c>
+      <c r="C330">
+        <v>411</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="F330" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>6</v>
+      </c>
+      <c r="B331" t="s">
+        <v>5</v>
+      </c>
+      <c r="C331">
+        <v>411</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>6</v>
+      </c>
+      <c r="B332" t="s">
+        <v>6</v>
+      </c>
+      <c r="C332">
+        <v>411</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>7</v>
+      </c>
+      <c r="B333" t="s">
+        <v>5</v>
+      </c>
+      <c r="C333">
+        <v>411</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="F333" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>7</v>
+      </c>
+      <c r="B334" t="s">
+        <v>6</v>
+      </c>
+      <c r="C334">
+        <v>411</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>1</v>
+      </c>
+      <c r="F334" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>8</v>
+      </c>
+      <c r="B335" t="s">
+        <v>5</v>
+      </c>
+      <c r="C335">
+        <v>411</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>1</v>
+      </c>
+      <c r="F335" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>8</v>
+      </c>
+      <c r="B336" t="s">
+        <v>6</v>
+      </c>
+      <c r="C336">
+        <v>411</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <v>0</v>
+      </c>
+      <c r="F336" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>9</v>
+      </c>
+      <c r="B337" t="s">
+        <v>5</v>
+      </c>
+      <c r="C337">
+        <v>411</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>1</v>
+      </c>
+      <c r="F337" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>9</v>
+      </c>
+      <c r="B338" t="s">
+        <v>6</v>
+      </c>
+      <c r="C338">
+        <v>411</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>10</v>
+      </c>
+      <c r="B339" t="s">
+        <v>5</v>
+      </c>
+      <c r="C339">
+        <v>411</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>10</v>
+      </c>
+      <c r="B340" t="s">
+        <v>6</v>
+      </c>
+      <c r="C340">
+        <v>411</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>0</v>
+      </c>
+      <c r="F340" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>11</v>
+      </c>
+      <c r="B341" t="s">
+        <v>5</v>
+      </c>
+      <c r="C341">
+        <v>411</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>11</v>
+      </c>
+      <c r="B342" t="s">
+        <v>6</v>
+      </c>
+      <c r="C342">
+        <v>411</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>12</v>
+      </c>
+      <c r="B343" t="s">
+        <v>5</v>
+      </c>
+      <c r="C343">
+        <v>411</v>
+      </c>
+      <c r="D343">
+        <v>2</v>
+      </c>
+      <c r="E343">
+        <v>3</v>
+      </c>
+      <c r="F343" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>12</v>
+      </c>
+      <c r="B344" t="s">
+        <v>6</v>
+      </c>
+      <c r="C344">
+        <v>411</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>13</v>
+      </c>
+      <c r="B345" t="s">
+        <v>5</v>
+      </c>
+      <c r="C345">
+        <v>411</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>0</v>
+      </c>
+      <c r="F345" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>13</v>
+      </c>
+      <c r="B346" t="s">
+        <v>6</v>
+      </c>
+      <c r="C346">
+        <v>411</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>1</v>
+      </c>
+      <c r="F346" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>14</v>
+      </c>
+      <c r="B347" t="s">
+        <v>5</v>
+      </c>
+      <c r="C347">
+        <v>411</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>14</v>
+      </c>
+      <c r="B348" t="s">
+        <v>6</v>
+      </c>
+      <c r="C348">
+        <v>411</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>1</v>
+      </c>
+      <c r="F348" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>15</v>
+      </c>
+      <c r="B349" t="s">
+        <v>6</v>
+      </c>
+      <c r="C349">
+        <v>411</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349">
+        <v>0</v>
+      </c>
+      <c r="F349" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>1</v>
+      </c>
+      <c r="B350" t="s">
+        <v>5</v>
+      </c>
+      <c r="C350">
+        <v>428</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>1</v>
+      </c>
+      <c r="B351" t="s">
+        <v>6</v>
+      </c>
+      <c r="C351">
+        <v>428</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
+      <c r="F351" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>2</v>
+      </c>
+      <c r="B352" t="s">
+        <v>5</v>
+      </c>
+      <c r="C352">
+        <v>428</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>2</v>
+      </c>
+      <c r="B353" t="s">
+        <v>6</v>
+      </c>
+      <c r="C353">
+        <v>428</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353">
+        <v>0</v>
+      </c>
+      <c r="F353" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>3</v>
+      </c>
+      <c r="B354" t="s">
+        <v>5</v>
+      </c>
+      <c r="C354">
+        <v>428</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>0</v>
+      </c>
+      <c r="F354" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>3</v>
+      </c>
+      <c r="B355" t="s">
+        <v>6</v>
+      </c>
+      <c r="C355">
+        <v>428</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355">
+        <v>0</v>
+      </c>
+      <c r="F355" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>4</v>
+      </c>
+      <c r="B356" t="s">
+        <v>5</v>
+      </c>
+      <c r="C356">
+        <v>428</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>0</v>
+      </c>
+      <c r="F356" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>4</v>
+      </c>
+      <c r="B357" t="s">
+        <v>6</v>
+      </c>
+      <c r="C357">
+        <v>428</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>1</v>
+      </c>
+      <c r="F357" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>5</v>
+      </c>
+      <c r="B358" t="s">
+        <v>5</v>
+      </c>
+      <c r="C358">
+        <v>428</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+      <c r="F358" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>5</v>
+      </c>
+      <c r="B359" t="s">
+        <v>6</v>
+      </c>
+      <c r="C359">
+        <v>428</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>6</v>
+      </c>
+      <c r="B360" t="s">
+        <v>5</v>
+      </c>
+      <c r="C360">
+        <v>428</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>6</v>
+      </c>
+      <c r="B361" t="s">
+        <v>6</v>
+      </c>
+      <c r="C361">
+        <v>428</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+      <c r="F361" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>7</v>
+      </c>
+      <c r="B362" t="s">
+        <v>5</v>
+      </c>
+      <c r="C362">
+        <v>428</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362">
+        <v>0</v>
+      </c>
+      <c r="F362" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>7</v>
+      </c>
+      <c r="B363" t="s">
+        <v>6</v>
+      </c>
+      <c r="C363">
+        <v>428</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363">
+        <v>0</v>
+      </c>
+      <c r="F363" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>8</v>
+      </c>
+      <c r="B364" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364">
+        <v>428</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
+        <v>0</v>
+      </c>
+      <c r="F364" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>8</v>
+      </c>
+      <c r="B365" t="s">
+        <v>6</v>
+      </c>
+      <c r="C365">
+        <v>428</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <v>0</v>
+      </c>
+      <c r="F365" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>9</v>
+      </c>
+      <c r="B366" t="s">
+        <v>5</v>
+      </c>
+      <c r="C366">
+        <v>428</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>0</v>
+      </c>
+      <c r="F366" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>9</v>
+      </c>
+      <c r="B367" t="s">
+        <v>6</v>
+      </c>
+      <c r="C367">
+        <v>428</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>10</v>
+      </c>
+      <c r="B368" t="s">
+        <v>5</v>
+      </c>
+      <c r="C368">
+        <v>428</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <v>0</v>
+      </c>
+      <c r="F368" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>10</v>
+      </c>
+      <c r="B369" t="s">
+        <v>6</v>
+      </c>
+      <c r="C369">
+        <v>428</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>11</v>
+      </c>
+      <c r="B370" t="s">
+        <v>5</v>
+      </c>
+      <c r="C370">
+        <v>428</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370">
+        <v>0</v>
+      </c>
+      <c r="F370" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>11</v>
+      </c>
+      <c r="B371" t="s">
+        <v>6</v>
+      </c>
+      <c r="C371">
+        <v>428</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="F371" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>12</v>
+      </c>
+      <c r="B372" t="s">
+        <v>5</v>
+      </c>
+      <c r="C372">
+        <v>428</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+      <c r="E372">
+        <v>2</v>
+      </c>
+      <c r="F372" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>12</v>
+      </c>
+      <c r="B373" t="s">
+        <v>6</v>
+      </c>
+      <c r="C373">
+        <v>428</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="F373" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>13</v>
+      </c>
+      <c r="B374" t="s">
+        <v>5</v>
+      </c>
+      <c r="C374">
+        <v>428</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <v>0</v>
+      </c>
+      <c r="F374" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>13</v>
+      </c>
+      <c r="B375" t="s">
+        <v>6</v>
+      </c>
+      <c r="C375">
+        <v>428</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375">
+        <v>0</v>
+      </c>
+      <c r="F375" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>14</v>
+      </c>
+      <c r="B376" t="s">
+        <v>5</v>
+      </c>
+      <c r="C376">
+        <v>428</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+      <c r="E376">
+        <v>0</v>
+      </c>
+      <c r="F376" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>14</v>
+      </c>
+      <c r="B377" t="s">
+        <v>6</v>
+      </c>
+      <c r="C377">
+        <v>428</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>15</v>
+      </c>
+      <c r="B378" t="s">
+        <v>6</v>
+      </c>
+      <c r="C378">
+        <v>428</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="F378" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/fitness_development/MFE_flies.xlsx
+++ b/data/fitness_development/MFE_flies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_19/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF6B70DB-F89E-1041-ABAD-3D5F559AAE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEBD6717-8491-9549-907A-7E4639F7AB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F87DAE63-E76D-134A-8567-557F4C2DF883}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="10">
   <si>
     <t>vial</t>
   </si>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E795774-325B-7540-93CB-61EC9638DF3F}">
-  <dimension ref="A1:F378"/>
+  <dimension ref="A1:F407"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I375" sqref="I375"/>
+    <sheetView tabSelected="1" topLeftCell="A393" zoomScale="194" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="F403" sqref="F403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8008,6 +8008,586 @@
         <v>8</v>
       </c>
     </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>1</v>
+      </c>
+      <c r="B379" t="s">
+        <v>5</v>
+      </c>
+      <c r="C379">
+        <v>434</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+      <c r="E379">
+        <v>1</v>
+      </c>
+      <c r="F379" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>1</v>
+      </c>
+      <c r="B380" t="s">
+        <v>6</v>
+      </c>
+      <c r="C380">
+        <v>434</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="F380" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>2</v>
+      </c>
+      <c r="B381" t="s">
+        <v>5</v>
+      </c>
+      <c r="C381">
+        <v>434</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+      <c r="E381">
+        <v>1</v>
+      </c>
+      <c r="F381" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>2</v>
+      </c>
+      <c r="B382" t="s">
+        <v>6</v>
+      </c>
+      <c r="C382">
+        <v>434</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382">
+        <v>0</v>
+      </c>
+      <c r="F382" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>3</v>
+      </c>
+      <c r="B383" t="s">
+        <v>5</v>
+      </c>
+      <c r="C383">
+        <v>434</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+      <c r="E383">
+        <v>0</v>
+      </c>
+      <c r="F383" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>3</v>
+      </c>
+      <c r="B384" t="s">
+        <v>6</v>
+      </c>
+      <c r="C384">
+        <v>434</v>
+      </c>
+      <c r="D384">
+        <v>0</v>
+      </c>
+      <c r="E384">
+        <v>0</v>
+      </c>
+      <c r="F384" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>4</v>
+      </c>
+      <c r="B385" t="s">
+        <v>5</v>
+      </c>
+      <c r="C385">
+        <v>434</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+      <c r="E385">
+        <v>1</v>
+      </c>
+      <c r="F385" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>4</v>
+      </c>
+      <c r="B386" t="s">
+        <v>6</v>
+      </c>
+      <c r="C386">
+        <v>434</v>
+      </c>
+      <c r="D386">
+        <v>0</v>
+      </c>
+      <c r="E386">
+        <v>0</v>
+      </c>
+      <c r="F386" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>5</v>
+      </c>
+      <c r="B387" t="s">
+        <v>5</v>
+      </c>
+      <c r="C387">
+        <v>434</v>
+      </c>
+      <c r="D387">
+        <v>0</v>
+      </c>
+      <c r="E387">
+        <v>0</v>
+      </c>
+      <c r="F387" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>5</v>
+      </c>
+      <c r="B388" t="s">
+        <v>6</v>
+      </c>
+      <c r="C388">
+        <v>434</v>
+      </c>
+      <c r="D388">
+        <v>0</v>
+      </c>
+      <c r="E388">
+        <v>0</v>
+      </c>
+      <c r="F388" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>6</v>
+      </c>
+      <c r="B389" t="s">
+        <v>5</v>
+      </c>
+      <c r="C389">
+        <v>434</v>
+      </c>
+      <c r="D389">
+        <v>0</v>
+      </c>
+      <c r="E389">
+        <v>0</v>
+      </c>
+      <c r="F389" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>6</v>
+      </c>
+      <c r="B390" t="s">
+        <v>6</v>
+      </c>
+      <c r="C390">
+        <v>434</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+      <c r="E390">
+        <v>0</v>
+      </c>
+      <c r="F390" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>7</v>
+      </c>
+      <c r="B391" t="s">
+        <v>5</v>
+      </c>
+      <c r="C391">
+        <v>434</v>
+      </c>
+      <c r="D391">
+        <v>0</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+      <c r="F391" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>7</v>
+      </c>
+      <c r="B392" t="s">
+        <v>6</v>
+      </c>
+      <c r="C392">
+        <v>434</v>
+      </c>
+      <c r="D392">
+        <v>0</v>
+      </c>
+      <c r="E392">
+        <v>0</v>
+      </c>
+      <c r="F392" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>8</v>
+      </c>
+      <c r="B393" t="s">
+        <v>5</v>
+      </c>
+      <c r="C393">
+        <v>434</v>
+      </c>
+      <c r="D393">
+        <v>0</v>
+      </c>
+      <c r="E393">
+        <v>0</v>
+      </c>
+      <c r="F393" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>8</v>
+      </c>
+      <c r="B394" t="s">
+        <v>6</v>
+      </c>
+      <c r="C394">
+        <v>434</v>
+      </c>
+      <c r="D394">
+        <v>0</v>
+      </c>
+      <c r="E394">
+        <v>0</v>
+      </c>
+      <c r="F394" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>9</v>
+      </c>
+      <c r="B395" t="s">
+        <v>5</v>
+      </c>
+      <c r="C395">
+        <v>434</v>
+      </c>
+      <c r="D395">
+        <v>0</v>
+      </c>
+      <c r="E395">
+        <v>2</v>
+      </c>
+      <c r="F395" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>9</v>
+      </c>
+      <c r="B396" t="s">
+        <v>6</v>
+      </c>
+      <c r="C396">
+        <v>434</v>
+      </c>
+      <c r="D396">
+        <v>0</v>
+      </c>
+      <c r="E396">
+        <v>0</v>
+      </c>
+      <c r="F396" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>10</v>
+      </c>
+      <c r="B397" t="s">
+        <v>5</v>
+      </c>
+      <c r="C397">
+        <v>434</v>
+      </c>
+      <c r="D397">
+        <v>0</v>
+      </c>
+      <c r="E397">
+        <v>0</v>
+      </c>
+      <c r="F397" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>10</v>
+      </c>
+      <c r="B398" t="s">
+        <v>6</v>
+      </c>
+      <c r="C398">
+        <v>434</v>
+      </c>
+      <c r="D398">
+        <v>0</v>
+      </c>
+      <c r="E398">
+        <v>0</v>
+      </c>
+      <c r="F398" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>11</v>
+      </c>
+      <c r="B399" t="s">
+        <v>5</v>
+      </c>
+      <c r="C399">
+        <v>434</v>
+      </c>
+      <c r="D399">
+        <v>0</v>
+      </c>
+      <c r="E399">
+        <v>0</v>
+      </c>
+      <c r="F399" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>11</v>
+      </c>
+      <c r="B400" t="s">
+        <v>6</v>
+      </c>
+      <c r="C400">
+        <v>434</v>
+      </c>
+      <c r="D400">
+        <v>0</v>
+      </c>
+      <c r="E400">
+        <v>1</v>
+      </c>
+      <c r="F400" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>12</v>
+      </c>
+      <c r="B401" t="s">
+        <v>5</v>
+      </c>
+      <c r="C401">
+        <v>434</v>
+      </c>
+      <c r="D401">
+        <v>0</v>
+      </c>
+      <c r="E401">
+        <v>0</v>
+      </c>
+      <c r="F401" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>12</v>
+      </c>
+      <c r="B402" t="s">
+        <v>6</v>
+      </c>
+      <c r="C402">
+        <v>434</v>
+      </c>
+      <c r="D402">
+        <v>0</v>
+      </c>
+      <c r="E402">
+        <v>0</v>
+      </c>
+      <c r="F402" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>13</v>
+      </c>
+      <c r="B403" t="s">
+        <v>5</v>
+      </c>
+      <c r="C403">
+        <v>434</v>
+      </c>
+      <c r="D403">
+        <v>0</v>
+      </c>
+      <c r="E403">
+        <v>0</v>
+      </c>
+      <c r="F403" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>13</v>
+      </c>
+      <c r="B404" t="s">
+        <v>6</v>
+      </c>
+      <c r="C404">
+        <v>434</v>
+      </c>
+      <c r="D404">
+        <v>0</v>
+      </c>
+      <c r="E404">
+        <v>0</v>
+      </c>
+      <c r="F404" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>14</v>
+      </c>
+      <c r="B405" t="s">
+        <v>5</v>
+      </c>
+      <c r="C405">
+        <v>434</v>
+      </c>
+      <c r="D405">
+        <v>0</v>
+      </c>
+      <c r="E405">
+        <v>0</v>
+      </c>
+      <c r="F405" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>14</v>
+      </c>
+      <c r="B406" t="s">
+        <v>6</v>
+      </c>
+      <c r="C406">
+        <v>434</v>
+      </c>
+      <c r="D406">
+        <v>0</v>
+      </c>
+      <c r="E406">
+        <v>0</v>
+      </c>
+      <c r="F406" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>15</v>
+      </c>
+      <c r="B407" t="s">
+        <v>6</v>
+      </c>
+      <c r="C407">
+        <v>434</v>
+      </c>
+      <c r="D407">
+        <v>0</v>
+      </c>
+      <c r="E407">
+        <v>0</v>
+      </c>
+      <c r="F407" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
